--- a/data/TopOnePercent/Shanghai Normal University.xlsx
+++ b/data/TopOnePercent/Shanghai Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1027.0</v>
+        <v>991.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>19349.0</v>
+        <v>18512.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>18.84</v>
+        <v>18.68</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>615.0</v>
+        <v>606.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>11905.0</v>
+        <v>11081.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>19.36</v>
+        <v>18.29</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,13 +228,13 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1074.0</v>
+        <v>990.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>6066.0</v>
+        <v>5025.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>5.65</v>
+        <v>5.08</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>13.0</v>
@@ -250,13 +250,13 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>562.0</v>
+        <v>556.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3544.0</v>
+        <v>3436.0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>6.31</v>
+        <v>6.18</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>4.0</v>
@@ -272,16 +272,16 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>365.0</v>
+        <v>343.0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3184.0</v>
+        <v>3008.0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>8.72</v>
+        <v>8.77</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
@@ -294,22 +294,22 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>5505.0</v>
+        <v>5318.0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>66148.0</v>
+        <v>61714.0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>12.02</v>
+        <v>11.6</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>75.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
